--- a/statistics/random_walk/gathered.xlsx
+++ b/statistics/random_walk/gathered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77733B-8BA8-48D7-B620-D9FBD814015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC1151-018E-47C0-8253-7BEF9BC00D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,16 +833,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,6 +846,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3432,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,45 +3451,45 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94" t="s">
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="N3" s="97" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="N3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="94" t="s">
+      <c r="O3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94" t="s">
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="97"/>
+      <c r="N4" s="94"/>
       <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4101,45 +4101,45 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94" t="s">
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94" t="s">
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="N22" s="95" t="s">
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="N22" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="98" t="s">
+      <c r="O22" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="98" t="s">
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="98" t="s">
+      <c r="S22" s="97"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="99"/>
-      <c r="W22" s="100"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="98"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="96"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="5" t="s">
         <v>4</v>
       </c>
@@ -4751,45 +4751,45 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94" t="s">
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94" t="s">
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="N41" s="97" t="s">
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="N41" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="94" t="s">
+      <c r="O41" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94" t="s">
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94" t="s">
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="97"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="K42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="97"/>
+      <c r="N42" s="94"/>
       <c r="O42" s="1" t="s">
         <v>4</v>
       </c>
@@ -5405,17 +5405,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="R41:T41"/>
     <mergeCell ref="U41:W41"/>
@@ -5429,6 +5418,17 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/random_walk/gathered.xlsx
+++ b/statistics/random_walk/gathered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arist\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC1151-018E-47C0-8253-7BEF9BC00D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F751EA-1F7D-44CA-98D3-88F4CE590C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +163,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -181,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -415,28 +426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -615,50 +604,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -721,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -730,41 +675,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -773,70 +692,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,15 +757,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,7 +813,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -935,7 +875,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1284,7 +1224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1743706352"/>
@@ -1343,7 +1283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1743699280"/>
@@ -1385,7 +1325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1422,7 +1362,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1436,7 +1376,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1506,7 +1446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1855,7 +1795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2033093184"/>
@@ -1914,7 +1854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2033095680"/>
@@ -1956,7 +1896,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1993,7 +1933,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3432,17 +3372,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I53" sqref="I17:K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -3450,46 +3390,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="N3" s="94" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="N3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="95" t="s">
+      <c r="O3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="94"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="60"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3517,7 +3457,7 @@
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="94"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3546,377 +3486,377 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.30380000000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="2">
         <v>0.52329999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>0.30259999999999998</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5">
         <v>0.55740000000000001</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <v>0.16109999999999999</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="2">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="2">
         <v>-2.2100000000000002E-2</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="22">
         <v>0.78120000000000001</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="71">
         <v>0.8972</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="23">
         <v>0.78090000000000004</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="22">
         <v>0.52239999999999998</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="2">
         <v>0.82340000000000002</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="24">
         <v>0.46</v>
       </c>
-      <c r="U5" s="49">
+      <c r="U5" s="23">
         <v>0.47010000000000002</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="2">
         <v>0.81210000000000004</v>
       </c>
-      <c r="W5" s="50">
+      <c r="W5" s="24">
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>0.25740000000000002</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>0.61809999999999998</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>0.26169999999999999</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="70">
         <v>0.73899999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="3">
         <v>0.14230000000000001</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6">
         <v>-4.9200000000000001E-2</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="3">
         <v>0.27310000000000001</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="3">
         <v>-2.6100000000000002E-2</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="25">
         <v>0.75939999999999996</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="37">
         <v>0.95409999999999995</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="15">
         <v>0.76329999999999998</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="25">
         <v>0.56799999999999995</v>
       </c>
-      <c r="S6" s="61">
+      <c r="S6" s="37">
         <v>0.95630000000000004</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="26">
         <v>0.52</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="15">
         <v>0.33400000000000002</v>
       </c>
-      <c r="V6" s="61">
+      <c r="V6" s="37">
         <v>0.90669999999999995</v>
       </c>
-      <c r="W6" s="52">
+      <c r="W6" s="26">
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="25">
         <v>0.59719999999999995</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="68">
         <v>0.89659999999999995</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>0.60340000000000005</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>0.47889999999999999</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="69">
         <v>0.879</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>0.52700000000000002</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <v>0.1346</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="68">
         <v>0.84819999999999995</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="34">
         <v>0.98109999999999997</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="37">
         <v>0.93049999999999999</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="Q7" s="33">
         <v>0.97430000000000005</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="34">
         <v>0.94650000000000001</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="13">
         <v>0.77339999999999998</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="35">
         <v>0.9385</v>
       </c>
-      <c r="U7" s="61">
+      <c r="U7" s="33">
         <v>0.94420000000000004</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="13">
         <v>0.75560000000000005</v>
       </c>
-      <c r="W7" s="52">
+      <c r="W7" s="26">
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8">
         <v>0.56010000000000004</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="12">
         <v>0.71179999999999999</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8">
         <v>0.58379999999999999</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="3">
         <v>0.41499999999999998</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="70">
         <v>0.91510000000000002</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="3">
         <v>0.41210000000000002</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="3">
         <v>0.67949999999999999</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="3">
         <v>0.2283</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="29">
         <v>0.99560000000000004</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="Q8" s="30">
         <v>0.99350000000000005</v>
       </c>
-      <c r="R8" s="59">
+      <c r="R8" s="31">
         <v>0.996</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="60">
+      <c r="T8" s="32">
         <v>0.98699999999999999</v>
       </c>
-      <c r="U8" s="58">
+      <c r="U8" s="30">
         <v>0.99299999999999999</v>
       </c>
-      <c r="V8" s="54" t="s">
+      <c r="V8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="60">
+      <c r="W8" s="32">
         <v>0.98809999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="26">
         <v>0.35639999999999999</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="26">
         <v>0.78380000000000005</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="13">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="13">
         <v>0.24110000000000001</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="68">
         <v>0.91520000000000001</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="13">
         <v>0.27850000000000003</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="13">
         <v>-1.4200000000000001E-2</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="13">
         <v>0.58150000000000002</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="13">
         <v>3.0599999999999999E-2</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="20">
         <v>0.94079999999999997</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="20">
         <v>0.93930000000000002</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="21">
         <v>0.81889999999999996</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="28">
         <v>0.85399999999999998</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="19">
         <v>0.66690000000000005</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="56">
+      <c r="W9" s="28">
         <v>0.80679999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="3">
         <v>0.36899999999999999</v>
       </c>
       <c r="D10">
         <v>0.53480000000000005</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="3">
         <v>0.52310000000000001</v>
       </c>
       <c r="F10">
         <v>0.50470000000000004</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="65">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="3">
         <v>0.56159999999999999</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="3">
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="J10">
         <v>0.16850000000000001</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="3">
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="13">
         <v>0.35649999999999998</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="69">
         <v>0.87139999999999995</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="13">
         <v>0.34360000000000002</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="16">
         <v>0.37859999999999999</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="37">
         <v>0.99009999999999998</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="13">
         <v>0.3574</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="13">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="69">
         <v>0.82840000000000003</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="13">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="O11" s="2"/>
@@ -3933,11 +3873,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="11">
         <v>0.55779999999999996</v>
       </c>
       <c r="D12" s="3">
@@ -3949,16 +3889,16 @@
       <c r="F12">
         <v>0.51870000000000005</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="65">
         <v>0.75780000000000003</v>
       </c>
       <c r="H12">
         <v>0.54390000000000005</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="17">
         <v>0.22220000000000001</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="17">
         <v>0.13600000000000001</v>
       </c>
       <c r="K12" s="3">
@@ -3967,49 +3907,49 @@
       <c r="O12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="8">
         <f>AVERAGE(O5:O9,R5:R9,U5:U9)</f>
         <v>0.7812066666666666</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="8">
         <f>AVERAGE(P5:P7,S5:S7,V5:V7)</f>
         <v>0.86769999999999992</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="8">
         <f>AVERAGE(T5:T9,Q5:Q9,W5:W9)</f>
         <v>0.77759999999999985</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="9">
         <f>AVERAGE(O5:O9,P5:P7,Q5:Q9,R5:R9,S5:S7,T5:T9,U5:U9,V5:V7,W5:W9)</f>
         <v>0.79977948717948699</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="67">
         <v>0.70720000000000005</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="67">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="18">
         <v>0.94079999999999997</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="19">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="18">
         <v>0.92559999999999998</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="20">
         <v>0.81889999999999996</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="21">
         <v>0.15</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="66">
         <v>0.7772</v>
       </c>
       <c r="K13" s="4">
@@ -4018,25 +3958,25 @@
       <c r="O13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="10">
         <f>MEDIAN(O5:O9,R5:R9,U5:U9)</f>
         <v>0.81889999999999996</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="10">
         <f>MEDIAN(P5:P7,S5:S7,V5:V7)</f>
         <v>0.8972</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="10">
         <f>MEDIAN(Q5:Q9,T5:T9,W5:W9)</f>
         <v>0.80679999999999996</v>
       </c>
-      <c r="S13" s="65">
+      <c r="S13" s="36">
         <f>MEDIAN(O5:W9)</f>
         <v>0.82340000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="48"/>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="22"/>
       <c r="D15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4050,49 +3990,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="8">
         <f>AVERAGE(C5:C13,F5:F13,I5:I13)</f>
         <v>0.30096666666666672</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="8">
         <f>AVERAGE(D5:D13,G5:G13,J5:J13)</f>
         <v>0.65950740740740743</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="8">
         <f>AVERAGE(E5:E13,H5:H13,K5:K13)</f>
         <v>0.35590370370370372</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="9">
         <f>AVERAGE(C5:K13)</f>
         <v>0.43879259259259251</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="10">
         <f>MEDIAN(C5:C13,F5:F13,I5:I13)</f>
         <v>0.30380000000000001</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="10">
         <f>MEDIAN(D5:D13,G5:G13,J5:J13)</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="10">
         <f>MEDIAN(E5:E13,H5:H13,K5:K13)</f>
         <v>0.34360000000000002</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="36">
         <f>MEDIAN(C5:K13)</f>
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -4100,46 +4040,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95" t="s">
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="N22" s="99" t="s">
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="N22" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="96" t="s">
+      <c r="O22" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="96" t="s">
+      <c r="P22" s="62"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="97"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="96" t="s">
+      <c r="S22" s="62"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="97"/>
-      <c r="W22" s="98"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="63"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="94"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4167,7 +4107,7 @@
       <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="100"/>
+      <c r="N23" s="59"/>
       <c r="O23" s="5" t="s">
         <v>4</v>
       </c>
@@ -4196,380 +4136,380 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="2">
         <v>0.28420000000000001</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="24">
         <v>0.504</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="2">
         <v>0.2903</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="2">
         <v>0.30249999999999999</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="84">
         <v>0.72140000000000004</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="2">
         <v>0.33389999999999997</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="24">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="2">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="2">
         <v>1.72E-2</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="22">
         <v>0.79790000000000005</v>
       </c>
       <c r="P24" s="2">
         <v>0.78549999999999998</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="23">
         <v>0.80279999999999996</v>
       </c>
       <c r="R24" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="S24" s="49">
+      <c r="S24" s="23">
         <v>0.83589999999999998</v>
       </c>
       <c r="T24" s="2">
         <v>0.7</v>
       </c>
-      <c r="U24" s="49">
+      <c r="U24" s="23">
         <v>0.64539999999999997</v>
       </c>
       <c r="V24" s="2">
         <v>0.81299999999999994</v>
       </c>
-      <c r="W24" s="50">
+      <c r="W24" s="24">
         <v>0.65249999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="3">
         <v>0.254</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="41">
         <v>0.6109</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="3">
         <v>0.27029999999999998</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="3">
         <v>0.25950000000000001</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="85">
         <v>0.873</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="3">
         <v>0.32229999999999998</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="41">
         <v>-2.7E-2</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="3">
         <v>0.20910000000000001</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="3">
         <v>-5.21E-2</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="N25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="25">
         <v>0.77680000000000005</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="13">
         <v>0.95389999999999997</v>
       </c>
-      <c r="Q25" s="41">
+      <c r="Q25" s="15">
         <v>0.77480000000000004</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="13">
         <v>0.69550000000000001</v>
       </c>
-      <c r="S25" s="41">
+      <c r="S25" s="15">
         <v>0.99</v>
       </c>
-      <c r="T25" s="79">
+      <c r="T25" s="42">
         <v>0.71699999999999997</v>
       </c>
-      <c r="U25" s="41">
+      <c r="U25" s="15">
         <v>0.48799999999999999</v>
       </c>
-      <c r="V25" s="33">
+      <c r="V25" s="13">
         <v>0.81689999999999996</v>
       </c>
-      <c r="W25" s="33">
+      <c r="W25" s="13">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="13">
         <v>0.55969999999999998</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="86">
         <v>0.90620000000000001</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="13">
         <v>0.51729999999999998</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="68">
         <v>0.71809999999999996</v>
       </c>
-      <c r="G26" s="74">
+      <c r="G26" s="86">
         <v>0.998</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="13">
         <v>0.66439999999999999</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="26">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="68">
         <v>0.8014</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="13">
         <v>-6.0999999999999999E-2</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="80">
+      <c r="O26" s="43">
         <v>0.98650000000000004</v>
       </c>
       <c r="P26" s="4">
         <v>0.88880000000000003</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="19">
         <v>0.98029999999999995</v>
       </c>
       <c r="R26" s="4">
         <v>0.97009999999999996</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="19">
         <v>0.97089999999999999</v>
       </c>
       <c r="T26" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26" s="20">
         <v>0.97199999999999998</v>
       </c>
       <c r="V26" s="4">
         <v>0.7339</v>
       </c>
-      <c r="W26" s="81">
+      <c r="W26" s="44">
         <v>0.9425</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="12">
         <v>0.55649999999999999</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="64">
         <v>0.77310000000000001</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="12">
         <v>0.56310000000000004</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="12">
         <v>0.57830000000000004</v>
       </c>
-      <c r="G27" s="71">
+      <c r="G27" s="64">
         <v>0.98229999999999995</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="12">
         <v>0.5796</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="39">
         <v>0.27350000000000002</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="12">
         <v>0.6643</v>
       </c>
-      <c r="K27" s="73">
+      <c r="K27" s="12">
         <v>0.3286</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="N27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="82">
+      <c r="O27" s="45">
         <v>0.99539999999999995</v>
       </c>
-      <c r="P27" s="83" t="s">
+      <c r="P27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="84">
+      <c r="Q27" s="47">
         <v>0.99399999999999999</v>
       </c>
-      <c r="R27" s="85">
+      <c r="R27" s="48">
         <v>0.997</v>
       </c>
-      <c r="S27" s="83" t="s">
+      <c r="S27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T27" s="86">
+      <c r="T27" s="49">
         <v>0.99299999999999999</v>
       </c>
-      <c r="U27" s="84">
+      <c r="U27" s="47">
         <v>0.99199999999999999</v>
       </c>
-      <c r="V27" s="83" t="s">
+      <c r="V27" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="86">
+      <c r="W27" s="49">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="13">
         <v>0.35170000000000001</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="68">
         <v>0.82869999999999999</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="13">
         <v>0.34849999999999998</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="13">
         <v>0.37340000000000001</v>
       </c>
-      <c r="G28" s="74">
+      <c r="G28" s="68">
         <v>0.98299999999999998</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="13">
         <v>0.3664</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="26">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="68">
         <v>0.70509999999999995</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="13">
         <v>2.23E-2</v>
       </c>
-      <c r="N28" s="87" t="s">
+      <c r="N28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="88">
+      <c r="O28" s="51">
         <v>0.94550000000000001</v>
       </c>
-      <c r="P28" s="89" t="s">
+      <c r="P28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="88">
+      <c r="Q28" s="51">
         <v>0.94940000000000002</v>
       </c>
-      <c r="R28" s="90">
+      <c r="R28" s="53">
         <v>0.92930000000000001</v>
       </c>
-      <c r="S28" s="89" t="s">
+      <c r="S28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="T28" s="91">
+      <c r="T28" s="54">
         <v>0.92400000000000004</v>
       </c>
-      <c r="U28" s="88">
+      <c r="U28" s="51">
         <v>0.8135</v>
       </c>
-      <c r="V28" s="89" t="s">
+      <c r="V28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="W28" s="91">
+      <c r="W28" s="54">
         <v>0.85429999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+    <row r="29" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="38">
         <v>0.37409999999999999</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="12">
         <v>0.58989999999999998</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="38">
         <v>0.53110000000000002</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="12">
         <v>0.63180000000000003</v>
       </c>
-      <c r="G29" s="75">
+      <c r="G29" s="83">
         <v>0.87770000000000004</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="12">
         <v>0.67279999999999995</v>
       </c>
-      <c r="I29" s="75">
+      <c r="I29" s="38">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="12">
         <v>0.28320000000000001</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="39">
         <v>0.1047</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="15">
         <v>0.32740000000000002</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="68">
         <v>0.86709999999999998</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="15">
         <v>0.32269999999999999</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="13">
         <v>0.66839999999999999</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="69">
         <v>0.99299999999999999</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="13">
         <v>0.64029999999999998</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="15">
         <v>2E-3</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="13">
         <v>0.59199999999999997</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="26">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="O30" s="48"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="5" t="s">
         <v>4</v>
       </c>
@@ -4583,11 +4523,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="40">
         <v>0.4914</v>
       </c>
       <c r="D31" s="3">
@@ -4611,82 +4551,82 @@
       <c r="J31" s="3">
         <v>0.51180000000000003</v>
       </c>
-      <c r="K31" s="78">
+      <c r="K31" s="41">
         <v>0.26079999999999998</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="8">
         <f>AVERAGE(O24:O28,R24:R28,U24:U28)</f>
         <v>0.84847333333333319</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="8">
         <f>AVERAGE(P24:P26,S24:S26,V24:V26)</f>
         <v>0.8654222222222222</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="8">
         <f>AVERAGE(Q24:Q28,T24:T28,W24:W28)</f>
         <v>0.84916000000000003</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="9">
         <f>AVERAGE(O24:W28)</f>
         <v>0.85264871794871788</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="19">
         <v>0.69579999999999997</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="67">
         <v>0.81950000000000001</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="82">
         <v>0.70899999999999996</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="67">
         <v>0.84919999999999995</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="82">
         <v>0.98309999999999997</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="67">
         <v>0.79879999999999995</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="19">
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="J32" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="K32" s="56">
+      <c r="K32" s="28">
         <v>0.1104</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="10">
         <f>MEDIAN(O24:O28,R24:R28,U24:U28)</f>
         <v>0.92930000000000001</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="10">
         <f>MEDIAN(P24:P26,S24:S26,V24:V26)</f>
         <v>0.83589999999999998</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="10">
         <f>MEDIAN(Q24:Q28,T24:T28,W24:W28)</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="S32" s="65">
+      <c r="S32" s="36">
         <f>MEDIAN(O24:W28)</f>
         <v>0.88880000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="48"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C34" s="22"/>
       <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
@@ -4700,49 +4640,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="8">
         <f>AVERAGE(F24:F32,C24:C32,I24:I32)</f>
         <v>0.34810000000000008</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="8">
         <f>AVERAGE(D24:D32,G24:G32,J24:J32)</f>
         <v>0.67471481481481488</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="8">
         <f>AVERAGE(E24:E32,H24:H32,K24:K32)</f>
         <v>0.36304814814814812</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="9">
         <f>AVERAGE(C24:K32)</f>
         <v>0.46195432098765432</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="10">
         <f>MEDIAN(C24:C32,F24:F32,I24:I32)</f>
         <v>0.32740000000000002</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="10">
         <f>MEDIAN(D24:D32,G24:G32,J24:J32)</f>
         <v>0.72140000000000004</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="10">
         <f>MEDIAN(E24:E32,H24:H32,K24:K32)</f>
         <v>0.33389999999999997</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="36">
         <f>MEDIAN(C24:K32)</f>
         <v>0.51180000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>29</v>
       </c>
@@ -4750,46 +4690,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="94" t="s">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95" t="s">
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="N41" s="94" t="s">
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="N41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="95" t="s">
+      <c r="O41" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95" t="s">
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95" t="s">
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="94"/>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B42" s="60"/>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +4757,7 @@
       <c r="K42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="94"/>
+      <c r="N42" s="60"/>
       <c r="O42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4846,162 +4786,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="72">
         <v>0.30330000000000001</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="73">
         <v>0.51890000000000003</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="72">
         <v>0.30640000000000001</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="73">
         <v>0.1762</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="72">
         <v>0.54710000000000003</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="73">
         <v>0.18360000000000001</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="72">
         <v>-3.1800000000000002E-2</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="87">
         <v>0.1293</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="74">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="48">
+      <c r="O43" s="22">
         <v>0.78469999999999995</v>
       </c>
       <c r="P43" s="2">
         <v>0.86890000000000001</v>
       </c>
-      <c r="Q43" s="49">
+      <c r="Q43" s="23">
         <v>0.78210000000000002</v>
       </c>
       <c r="R43" s="2">
         <v>0.48399999999999999</v>
       </c>
-      <c r="S43" s="50">
+      <c r="S43" s="24">
         <v>0.84740000000000004</v>
       </c>
-      <c r="T43" s="50">
+      <c r="T43" s="24">
         <v>0.44069999999999998</v>
       </c>
       <c r="U43" s="2">
         <v>0.42809999999999998</v>
       </c>
-      <c r="V43" s="50">
+      <c r="V43" s="24">
         <v>0.82789999999999997</v>
       </c>
-      <c r="W43" s="50">
+      <c r="W43" s="24">
         <v>0.43640000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="76">
         <v>0.26390000000000002</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="75">
         <v>0.61040000000000005</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="76">
         <v>0.26860000000000001</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="75">
         <v>0.1431</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="88">
         <v>0.75919999999999999</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="75">
         <v>0.11559999999999999</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="76">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="77">
         <v>0.1988</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="89">
         <v>-3.7199999999999997E-2</v>
       </c>
-      <c r="N44" s="33" t="s">
+      <c r="N44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="51">
+      <c r="O44" s="25">
         <v>0.75870000000000004</v>
       </c>
-      <c r="P44" s="33">
+      <c r="P44" s="13">
         <v>0.95199999999999996</v>
       </c>
-      <c r="Q44" s="41">
+      <c r="Q44" s="15">
         <v>0.76249999999999996</v>
       </c>
-      <c r="R44" s="33">
+      <c r="R44" s="13">
         <v>0.50939999999999996</v>
       </c>
-      <c r="S44" s="52">
+      <c r="S44" s="26">
         <v>0.97599999999999998</v>
       </c>
-      <c r="T44" s="52">
+      <c r="T44" s="26">
         <v>0.5554</v>
       </c>
-      <c r="U44" s="33">
+      <c r="U44" s="13">
         <v>0.43009999999999998</v>
       </c>
-      <c r="V44" s="52">
+      <c r="V44" s="26">
         <v>0.82479999999999998</v>
       </c>
-      <c r="W44" s="52">
+      <c r="W44" s="26">
         <v>0.42280000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="75">
         <v>0.60029999999999994</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="88">
         <v>0.8841</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="75">
         <v>0.59919999999999995</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="76">
         <v>0.45739999999999997</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="90">
         <v>0.8679</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="91">
         <v>0.49009999999999998</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="76">
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="92">
         <v>0.84930000000000005</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="77">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="N45" s="33" t="s">
+      <c r="N45" s="13" t="s">
         <v>9</v>
       </c>
       <c r="O45">
@@ -5010,216 +4950,216 @@
       <c r="P45" s="3">
         <v>0.94179999999999997</v>
       </c>
-      <c r="Q45" s="41">
+      <c r="Q45" s="15">
         <v>0.97560000000000002</v>
       </c>
-      <c r="R45" s="33">
+      <c r="R45" s="13">
         <v>0.95330000000000004</v>
       </c>
-      <c r="S45" s="78">
+      <c r="S45" s="41">
         <v>0.96809999999999996</v>
       </c>
-      <c r="T45" s="52">
+      <c r="T45" s="26">
         <v>0.93500000000000005</v>
       </c>
-      <c r="U45" s="33">
+      <c r="U45" s="13">
         <v>0.94610000000000005</v>
       </c>
-      <c r="V45" s="52">
+      <c r="V45" s="26">
         <v>0.83</v>
       </c>
-      <c r="W45" s="52">
+      <c r="W45" s="26">
         <v>0.94</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+    <row r="46" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="93">
         <v>0.55449999999999999</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="94">
         <v>0.70140000000000002</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="93">
         <v>0.58240000000000003</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="94">
         <v>0.3876</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="95">
         <v>0.85450000000000004</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="94">
         <v>0.442</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="93">
         <v>0.14449999999999999</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J46" s="96">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="97">
         <v>0.22520000000000001</v>
       </c>
-      <c r="N46" s="53" t="s">
+      <c r="N46" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O46" s="82">
+      <c r="O46" s="45">
         <v>0.99670000000000003</v>
       </c>
-      <c r="P46" s="83" t="s">
+      <c r="P46" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q46" s="84">
+      <c r="Q46" s="47">
         <v>0.99380000000000002</v>
       </c>
-      <c r="R46" s="53">
+      <c r="R46" s="27">
         <v>0.99399999999999999</v>
       </c>
-      <c r="S46" s="92" t="s">
+      <c r="S46" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="86">
+      <c r="T46" s="49">
         <v>0.99</v>
       </c>
-      <c r="U46" s="53">
+      <c r="U46" s="27">
         <v>0.996</v>
       </c>
-      <c r="V46" s="92" t="s">
+      <c r="V46" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W46" s="86">
+      <c r="W46" s="49">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="33" t="s">
+    <row r="47" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="78">
         <v>0.38490000000000002</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="79">
         <v>0.80810000000000004</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="78">
         <v>0.38590000000000002</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="80">
         <v>0.29380000000000001</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="98">
         <v>0.95</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="80">
         <v>0.2316</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="78">
         <v>3.1E-2</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="99">
         <v>0.79600000000000004</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K47" s="81">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="19">
         <v>0.93830000000000002</v>
       </c>
-      <c r="P47" s="89" t="s">
+      <c r="P47" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q47" s="45">
+      <c r="Q47" s="19">
         <v>0.94210000000000005</v>
       </c>
       <c r="R47" s="4">
         <v>0.77900000000000003</v>
       </c>
-      <c r="S47" s="93" t="s">
+      <c r="S47" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="T47" s="56">
+      <c r="T47" s="28">
         <v>0.87360000000000004</v>
       </c>
       <c r="U47" s="4">
         <v>0.80679999999999996</v>
       </c>
-      <c r="V47" s="93" t="s">
+      <c r="V47" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="W47" s="56">
+      <c r="W47" s="28">
         <v>0.82609999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+    <row r="48" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="12">
         <v>0.37159999999999999</v>
       </c>
       <c r="D48">
         <v>0.55959999999999999</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="12">
         <v>0.50719999999999998</v>
       </c>
       <c r="F48">
         <v>0.52310000000000001</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="12">
         <v>0.69650000000000001</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="12">
         <v>0.54249999999999998</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="12">
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="J48">
         <v>0.1968</v>
       </c>
-      <c r="K48" s="27">
+      <c r="K48" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="33" t="s">
+    <row r="49" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="14">
         <v>0.3387</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="15">
         <v>0.38890000000000002</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="13">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="16">
         <v>0.87549999999999994</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="13">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="13">
         <v>0.82709999999999995</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="13">
         <v>0.3463</v>
       </c>
-      <c r="J49" s="41">
+      <c r="J49" s="15">
         <v>0.39200000000000002</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O49" s="48"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="5" t="s">
         <v>4</v>
       </c>
@@ -5233,11 +5173,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="11">
         <v>0.55559999999999998</v>
       </c>
       <c r="D50" s="3">
@@ -5255,10 +5195,10 @@
       <c r="H50">
         <v>0.52839999999999998</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="17">
         <v>0.2455</v>
       </c>
-      <c r="J50" s="43">
+      <c r="J50" s="17">
         <v>0.29559999999999997</v>
       </c>
       <c r="K50" s="3">
@@ -5267,49 +5207,49 @@
       <c r="O50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="23">
+      <c r="P50" s="8">
         <f>AVERAGE(O43:O47,R43:R47,U43:U47)</f>
         <v>0.78576000000000001</v>
       </c>
-      <c r="Q50" s="23">
+      <c r="Q50" s="8">
         <f>AVERAGE(P43:P45,S43:S45,V43:V45)</f>
         <v>0.89298888888888883</v>
       </c>
-      <c r="R50" s="23">
+      <c r="R50" s="8">
         <f>AVERAGE(Q43:Q47,T43:T47,W43:W47)</f>
         <v>0.79027333333333338</v>
       </c>
-      <c r="S50" s="24">
+      <c r="S50" s="9">
         <f>AVERAGE(O43:W47)</f>
         <v>0.81224102564102563</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="4">
         <v>0.70279999999999998</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="18">
         <v>0.85760000000000003</v>
       </c>
-      <c r="E51" s="44">
+      <c r="E51" s="18">
         <v>0.70750000000000002</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="19">
         <v>0.58679999999999999</v>
       </c>
-      <c r="G51" s="44">
+      <c r="G51" s="18">
         <v>0.93889999999999996</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="20">
         <v>0.58650000000000002</v>
       </c>
-      <c r="I51" s="47">
+      <c r="I51" s="21">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J51" s="47">
+      <c r="J51" s="21">
         <v>0.79710000000000003</v>
       </c>
       <c r="K51" s="4">
@@ -5318,25 +5258,25 @@
       <c r="O51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="25">
+      <c r="P51" s="10">
         <f>MEDIAN(O43:O47,R43:R47,U43:U47)</f>
         <v>0.80679999999999996</v>
       </c>
-      <c r="Q51" s="25">
+      <c r="Q51" s="10">
         <f>MEDIAN(P43:P45,S43:S45,V43:V45)</f>
         <v>0.86890000000000001</v>
       </c>
-      <c r="R51" s="25">
+      <c r="R51" s="10">
         <f>MEDIAN(Q43:Q47,T43:T47,W43:W47)</f>
         <v>0.87360000000000004</v>
       </c>
-      <c r="S51" s="65">
+      <c r="S51" s="36">
         <f>MEDIAN(O43:W47)</f>
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="48"/>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C54" s="22"/>
       <c r="D54" s="5" t="s">
         <v>4</v>
       </c>
@@ -5353,44 +5293,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="8">
         <f>AVERAGE(C43:C51,F43:F51,I43:I51)</f>
         <v>0.33714074074074074</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="8">
         <f>AVERAGE(D43:D51,G43:G51,J43:J51)</f>
         <v>0.64025185185185185</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="8">
         <f>AVERAGE(E43:E51,H43:H51,K43:K51)</f>
         <v>0.32408148148148141</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="9">
         <f>AVERAGE(C43:K51)</f>
         <v>0.43382469135802459</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="10">
         <f>MEDIAN(C43:C51,F43:F51,I43:I51)</f>
         <v>0.3387</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="10">
         <f>MEDIAN(D43:D51,G43:G51,J43:J51)</f>
         <v>0.70140000000000002</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="10">
         <f>MEDIAN(E43:E51,H43:H51,K43:K51)</f>
         <v>0.26860000000000001</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="36">
         <f>MEDIAN(C43:K51)</f>
         <v>0.39200000000000002</v>
       </c>
@@ -5398,13 +5338,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L58" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="R41:T41"/>
     <mergeCell ref="U41:W41"/>
@@ -5418,17 +5369,6 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/random_walk/gathered.xlsx
+++ b/statistics/random_walk/gathered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arist\Documents\ForumPolarization\statistics\random_walk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F751EA-1F7D-44CA-98D3-88F4CE590C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78A77C-C27A-4AEA-BBD6-94B156A539A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="33">
   <si>
     <t>2-Subreddits</t>
   </si>
@@ -107,9 +107,6 @@
     <t>lgbt &amp; Cons.</t>
   </si>
   <si>
-    <t>no inter</t>
-  </si>
-  <si>
     <t>space &amp; consp</t>
   </si>
   <si>
@@ -130,20 +127,42 @@
   <si>
     <t>Simple</t>
   </si>
+  <si>
+    <t>Comare Types</t>
+  </si>
+  <si>
+    <t>Intra</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,8 +190,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,18 +231,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -376,62 +419,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -445,63 +432,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -662,11 +593,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -679,74 +650,103 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,45 +757,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,7 +785,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -875,7 +847,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1224,7 +1196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1743706352"/>
@@ -1283,7 +1255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1743699280"/>
@@ -1325,7 +1297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1362,7 +1334,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1376,7 +1348,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1446,7 +1418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1724,13 +1696,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>0.85264871794871788</c:v>
+                  <c:v>0.87229555555555527</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>0.81224102564102563</c:v>
+                  <c:v>0.83727555555555566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,7 +1767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2033093184"/>
@@ -1854,7 +1826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2033095680"/>
@@ -1896,7 +1868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1933,7 +1905,463 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parmeters Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RW(rr)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$81:$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Intra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$81:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.52079629629629642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91113777777777782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4765-4586-9CF8-01D4BF28BC83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RW(rp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$81:$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Intra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$81:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.58931604938271576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84200444444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4765-4586-9CF8-01D4BF28BC83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RW(pp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$81:$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Intra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$81:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.22445925925925928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77991521739130432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4765-4586-9CF8-01D4BF28BC83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539563807"/>
+        <c:axId val="539564639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539563807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539564639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539564639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539563807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2024,6 +2452,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2528,6 +2996,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3099,6 +4070,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580081</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>5662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>483973</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>105889</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CA7760-80FC-93C3-F606-D907B4061B99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3370,19 +4377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:W58"/>
+  <dimension ref="B1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I53" sqref="I17:K53"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -3390,46 +4397,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="N3" s="60" t="s">
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57" t="s">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="90"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3457,7 +4464,7 @@
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="60"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3486,7 +4493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3520,35 +4527,35 @@
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <v>0.78120000000000001</v>
       </c>
-      <c r="P5" s="71">
+      <c r="P5" s="58">
         <v>0.8972</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="22">
         <v>0.78090000000000004</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <v>0.52239999999999998</v>
       </c>
       <c r="S5" s="2">
         <v>0.82340000000000002</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <v>0.46</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="22">
         <v>0.47010000000000002</v>
       </c>
       <c r="V5" s="2">
         <v>0.81210000000000004</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="23">
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3564,7 +4571,7 @@
       <c r="F6" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="57">
         <v>0.73899999999999999</v>
       </c>
       <c r="H6" s="3">
@@ -3582,60 +4589,60 @@
       <c r="N6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="24">
         <v>0.75939999999999996</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>0.95409999999999995</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>0.76329999999999998</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="24">
         <v>0.56799999999999995</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="36">
         <v>0.95630000000000004</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="25">
         <v>0.52</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="14">
         <v>0.33400000000000002</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="36">
         <v>0.90669999999999995</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="25">
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>0.59719999999999995</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="55">
         <v>0.89659999999999995</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.60340000000000005</v>
       </c>
       <c r="F7" s="13">
         <v>0.47889999999999999</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="56">
         <v>0.879</v>
       </c>
       <c r="H7" s="13">
         <v>0.52700000000000002</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>0.1346</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="55">
         <v>0.84819999999999995</v>
       </c>
       <c r="K7" s="13">
@@ -3644,35 +4651,35 @@
       <c r="N7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <v>0.98109999999999997</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="36">
         <v>0.93049999999999999</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="32">
         <v>0.97430000000000005</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="33">
         <v>0.94650000000000001</v>
       </c>
       <c r="S7" s="13">
         <v>0.77339999999999998</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <v>0.9385</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="32">
         <v>0.94420000000000004</v>
       </c>
       <c r="V7" s="13">
         <v>0.75560000000000005</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="25">
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -3688,7 +4695,7 @@
       <c r="F8" s="3">
         <v>0.41499999999999998</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="57">
         <v>0.91510000000000002</v>
       </c>
       <c r="H8" s="3">
@@ -3703,45 +4710,45 @@
       <c r="K8" s="3">
         <v>0.2283</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="28">
         <v>0.99560000000000004</v>
       </c>
-      <c r="P8" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="30">
+      <c r="P8" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="29">
         <v>0.99350000000000005</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="77">
         <v>0.996</v>
       </c>
-      <c r="S8" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="32">
+      <c r="S8" s="42">
+        <v>1</v>
+      </c>
+      <c r="T8" s="31">
         <v>0.98699999999999999</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="29">
         <v>0.99299999999999999</v>
       </c>
-      <c r="V8" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="32">
+      <c r="V8" s="42">
+        <v>1</v>
+      </c>
+      <c r="W8" s="31">
         <v>0.98809999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>0.35639999999999999</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>0.78380000000000005</v>
       </c>
       <c r="E9" s="13">
@@ -3750,7 +4757,7 @@
       <c r="F9" s="13">
         <v>0.24110000000000001</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="55">
         <v>0.91520000000000001</v>
       </c>
       <c r="H9" s="13">
@@ -3766,37 +4773,37 @@
         <v>3.0599999999999999E-2</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="20">
+        <v>23</v>
+      </c>
+      <c r="O9" s="19">
         <v>0.94079999999999997</v>
       </c>
-      <c r="P9" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="20">
+      <c r="P9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="19">
         <v>0.93930000000000002</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <v>0.81889999999999996</v>
       </c>
-      <c r="S9" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="28">
+      <c r="S9" s="47">
+        <v>1</v>
+      </c>
+      <c r="T9" s="27">
         <v>0.85399999999999998</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="18">
         <v>0.66690000000000005</v>
       </c>
-      <c r="V9" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="W9" s="28">
+      <c r="V9" s="47">
+        <v>1</v>
+      </c>
+      <c r="W9" s="27">
         <v>0.80679999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -3812,7 +4819,7 @@
       <c r="F10">
         <v>0.50470000000000004</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="52">
         <v>0.71099999999999997</v>
       </c>
       <c r="H10" s="3">
@@ -3828,23 +4835,23 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="13">
         <v>0.35649999999999998</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="56">
         <v>0.87139999999999995</v>
       </c>
       <c r="E11" s="13">
         <v>0.34360000000000002</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>0.37859999999999999</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>0.99009999999999998</v>
       </c>
       <c r="H11" s="13">
@@ -3853,7 +4860,7 @@
       <c r="I11" s="13">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="56">
         <v>0.82840000000000003</v>
       </c>
       <c r="K11" s="13">
@@ -3870,10 +4877,10 @@
         <v>6</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -3889,23 +4896,23 @@
       <c r="F12">
         <v>0.51870000000000005</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="52">
         <v>0.75780000000000003</v>
       </c>
       <c r="H12">
         <v>0.54390000000000005</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>0.22220000000000001</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>0.13600000000000001</v>
       </c>
       <c r="K12" s="3">
         <v>0.24979999999999999</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="8">
         <f>AVERAGE(O5:O9,R5:R9,U5:U9)</f>
@@ -3923,40 +4930,44 @@
         <f>AVERAGE(O5:O9,P5:P7,Q5:Q9,R5:R9,S5:S7,T5:T9,U5:U9,V5:V7,W5:W9)</f>
         <v>0.79977948717948699</v>
       </c>
+      <c r="W12">
+        <f>MAX(O5:W9)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="54">
         <v>0.70720000000000005</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="54">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.94079999999999997</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>0.92559999999999998</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>0.81889999999999996</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>0.15</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="53">
         <v>0.7772</v>
       </c>
       <c r="K13" s="4">
         <v>0.66690000000000005</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="10">
         <f>MEDIAN(O5:O9,R5:R9,U5:U9)</f>
@@ -3970,13 +4981,13 @@
         <f>MEDIAN(Q5:Q9,T5:T9,W5:W9)</f>
         <v>0.80679999999999996</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="35">
         <f>MEDIAN(O5:W9)</f>
-        <v>0.82340000000000002</v>
+        <v>0.90669999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="22"/>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
       <c r="D15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3987,12 +4998,12 @@
         <v>6</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <f>AVERAGE(C5:C13,F5:F13,I5:I13)</f>
@@ -4011,9 +5022,9 @@
         <v>0.43879259259259251</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="10">
         <f>MEDIAN(C5:C13,F5:F13,I5:I13)</f>
@@ -4027,12 +5038,12 @@
         <f>MEDIAN(E5:E13,H5:H13,K5:K13)</f>
         <v>0.34360000000000002</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <f>MEDIAN(C5:K13)</f>
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -4040,46 +5051,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="60" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57" t="s">
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57" t="s">
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="N22" s="58" t="s">
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="N22" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="61" t="s">
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="62"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="61" t="s">
+      <c r="S22" s="93"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="62"/>
-      <c r="W22" s="63"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="94"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4107,7 +5118,7 @@
       <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="59"/>
+      <c r="N23" s="96"/>
       <c r="O23" s="5" t="s">
         <v>4</v>
       </c>
@@ -4136,14 +5147,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="2">
         <v>0.28420000000000001</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>0.504</v>
       </c>
       <c r="E24" s="2">
@@ -4152,13 +5163,13 @@
       <c r="F24" s="2">
         <v>0.30249999999999999</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="61">
         <v>0.72140000000000004</v>
       </c>
       <c r="H24" s="2">
         <v>0.33389999999999997</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="23">
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="J24" s="2">
@@ -4167,45 +5178,45 @@
       <c r="K24" s="2">
         <v>1.72E-2</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="5">
         <v>0.79790000000000005</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="71">
         <v>0.78549999999999998</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="6">
         <v>0.80279999999999996</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="72">
         <v>0.72219999999999995</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="6">
         <v>0.83589999999999998</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="72">
         <v>0.7</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="73">
         <v>0.64539999999999997</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="1">
         <v>0.81299999999999994</v>
       </c>
-      <c r="W24" s="24">
+      <c r="W24" s="76">
         <v>0.65249999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>0.254</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="40">
         <v>0.6109</v>
       </c>
       <c r="E25" s="3">
@@ -4214,13 +5225,13 @@
       <c r="F25" s="3">
         <v>0.25950000000000001</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="62">
         <v>0.873</v>
       </c>
       <c r="H25" s="3">
         <v>0.32229999999999998</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="40">
         <v>-2.7E-2</v>
       </c>
       <c r="J25" s="3">
@@ -4232,60 +5243,60 @@
       <c r="N25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="24">
         <v>0.77680000000000005</v>
       </c>
       <c r="P25" s="13">
         <v>0.95389999999999997</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="14">
         <v>0.77480000000000004</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="67">
         <v>0.69550000000000001</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="14">
         <v>0.99</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="67">
         <v>0.71699999999999997</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="69">
         <v>0.48799999999999999</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="66">
         <v>0.81689999999999996</v>
       </c>
       <c r="W25" s="13">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="13">
         <v>0.55969999999999998</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="63">
         <v>0.90620000000000001</v>
       </c>
       <c r="E26" s="13">
         <v>0.51729999999999998</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="55">
         <v>0.71809999999999996</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="63">
         <v>0.998</v>
       </c>
       <c r="H26" s="13">
         <v>0.66439999999999999</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="55">
         <v>0.8014</v>
       </c>
       <c r="K26" s="13">
@@ -4294,42 +5305,42 @@
       <c r="N26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="65">
         <v>0.98650000000000004</v>
       </c>
       <c r="P26" s="4">
         <v>0.88880000000000003</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>0.98029999999999995</v>
       </c>
       <c r="R26" s="4">
         <v>0.97009999999999996</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="68">
         <v>0.97089999999999999</v>
       </c>
       <c r="T26" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="64">
         <v>0.97199999999999998</v>
       </c>
       <c r="V26" s="4">
         <v>0.7339</v>
       </c>
-      <c r="W26" s="44">
+      <c r="W26" s="70">
         <v>0.9425</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="12">
         <v>0.55649999999999999</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="51">
         <v>0.77310000000000001</v>
       </c>
       <c r="E27" s="12">
@@ -4338,13 +5349,13 @@
       <c r="F27" s="12">
         <v>0.57830000000000004</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="51">
         <v>0.98229999999999995</v>
       </c>
       <c r="H27" s="12">
         <v>0.5796</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="38">
         <v>0.27350000000000002</v>
       </c>
       <c r="J27" s="12">
@@ -4353,45 +5364,45 @@
       <c r="K27" s="12">
         <v>0.3286</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="41">
         <v>0.99539999999999995</v>
       </c>
-      <c r="P27" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="47">
+      <c r="P27" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="43">
         <v>0.99399999999999999</v>
       </c>
-      <c r="R27" s="48">
+      <c r="R27" s="30">
         <v>0.997</v>
       </c>
-      <c r="S27" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="49">
+      <c r="S27" s="42">
+        <v>1</v>
+      </c>
+      <c r="T27" s="44">
         <v>0.99299999999999999</v>
       </c>
-      <c r="U27" s="47">
+      <c r="U27" s="43">
         <v>0.99199999999999999</v>
       </c>
-      <c r="V27" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="W27" s="49">
+      <c r="V27" s="42">
+        <v>1</v>
+      </c>
+      <c r="W27" s="44">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="13">
         <v>0.35170000000000001</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="55">
         <v>0.82869999999999999</v>
       </c>
       <c r="E28" s="13">
@@ -4400,116 +5411,116 @@
       <c r="F28" s="13">
         <v>0.37340000000000001</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="55">
         <v>0.98299999999999998</v>
       </c>
       <c r="H28" s="13">
         <v>0.3664</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="55">
         <v>0.70509999999999995</v>
       </c>
       <c r="K28" s="13">
         <v>2.23E-2</v>
       </c>
-      <c r="N28" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="51">
+      <c r="N28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="46">
         <v>0.94550000000000001</v>
       </c>
-      <c r="P28" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="51">
+      <c r="P28" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="46">
         <v>0.94940000000000002</v>
       </c>
-      <c r="R28" s="53">
+      <c r="R28" s="74">
         <v>0.92930000000000001</v>
       </c>
-      <c r="S28" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="54">
+      <c r="S28" s="47">
+        <v>1</v>
+      </c>
+      <c r="T28" s="48">
         <v>0.92400000000000004</v>
       </c>
-      <c r="U28" s="51">
+      <c r="U28" s="75">
         <v>0.8135</v>
       </c>
-      <c r="V28" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="W28" s="54">
+      <c r="V28" s="47">
+        <v>1</v>
+      </c>
+      <c r="W28" s="48">
         <v>0.85429999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>0.37409999999999999</v>
       </c>
       <c r="D29" s="12">
         <v>0.58989999999999998</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="37">
         <v>0.53110000000000002</v>
       </c>
       <c r="F29" s="12">
         <v>0.63180000000000003</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="60">
         <v>0.87770000000000004</v>
       </c>
       <c r="H29" s="12">
         <v>0.67279999999999995</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="37">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="J29" s="12">
         <v>0.28320000000000001</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="38">
         <v>0.1047</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>0.32740000000000002</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="55">
         <v>0.86709999999999998</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>0.32269999999999999</v>
       </c>
       <c r="F30" s="13">
         <v>0.66839999999999999</v>
       </c>
-      <c r="G30" s="69">
+      <c r="G30" s="56">
         <v>0.99299999999999999</v>
       </c>
       <c r="H30" s="13">
         <v>0.64029999999999998</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <v>2E-3</v>
       </c>
       <c r="J30" s="13">
         <v>0.59199999999999997</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="25">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="O30" s="22"/>
+      <c r="O30" s="21"/>
       <c r="P30" s="5" t="s">
         <v>4</v>
       </c>
@@ -4520,14 +5531,18 @@
         <v>6</v>
       </c>
       <c r="S30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W30">
+        <f>MAX(O24:W28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="40">
+      <c r="C31" s="39">
         <v>0.4914</v>
       </c>
       <c r="D31" s="3">
@@ -4551,11 +5566,11 @@
       <c r="J31" s="3">
         <v>0.51180000000000003</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="40">
         <v>0.26079999999999998</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P31" s="8">
         <f>AVERAGE(O24:O28,R24:R28,U24:U28)</f>
@@ -4571,42 +5586,42 @@
       </c>
       <c r="S31" s="9">
         <f>AVERAGE(O24:W28)</f>
-        <v>0.85264871794871788</v>
+        <v>0.87229555555555527</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>0.69579999999999997</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="54">
         <v>0.81950000000000001</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="59">
         <v>0.70899999999999996</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="54">
         <v>0.84919999999999995</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="59">
         <v>0.98309999999999997</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="54">
         <v>0.79879999999999995</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="J32" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>0.1104</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P32" s="10">
         <f>MEDIAN(O24:O28,R24:R28,U24:U28)</f>
@@ -4620,13 +5635,13 @@
         <f>MEDIAN(Q24:Q28,T24:T28,W24:W28)</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="S32" s="36">
+      <c r="S32" s="35">
         <f>MEDIAN(O24:W28)</f>
-        <v>0.88880000000000003</v>
+        <v>0.9425</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C34" s="22"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
       <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
@@ -4637,12 +5652,12 @@
         <v>6</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="8">
         <f>AVERAGE(F24:F32,C24:C32,I24:I32)</f>
@@ -4661,9 +5676,9 @@
         <v>0.46195432098765432</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="10">
         <f>MEDIAN(C24:C32,F24:F32,I24:I32)</f>
@@ -4677,59 +5692,59 @@
         <f>MEDIAN(E24:E32,H24:H32,K24:K32)</f>
         <v>0.33389999999999997</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="35">
         <f>MEDIAN(C24:K32)</f>
         <v>0.51180000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="60" t="s">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57" t="s">
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57" t="s">
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="N41" s="60" t="s">
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="N41" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="57" t="s">
+      <c r="O41" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57" t="s">
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57" t="s">
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="60"/>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4757,7 +5772,7 @@
       <c r="K42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="60"/>
+      <c r="N42" s="90"/>
       <c r="O42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4786,159 +5801,159 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="1">
         <v>0.30330000000000001</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="1">
         <v>0.51890000000000003</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="1">
         <v>0.30640000000000001</v>
       </c>
-      <c r="F43" s="73">
+      <c r="F43" s="1">
         <v>0.1762</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="1">
         <v>0.54710000000000003</v>
       </c>
-      <c r="H43" s="73">
+      <c r="H43" s="1">
         <v>0.18360000000000001</v>
       </c>
-      <c r="I43" s="72">
+      <c r="I43" s="1">
         <v>-3.1800000000000002E-2</v>
       </c>
-      <c r="J43" s="87">
+      <c r="J43" s="1">
         <v>0.1293</v>
       </c>
-      <c r="K43" s="74">
+      <c r="K43" s="1">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O43" s="5">
         <v>0.78469999999999995</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <v>0.86890000000000001</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="Q43" s="6">
         <v>0.78210000000000002</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="S43" s="24">
+      <c r="S43" s="7">
         <v>0.84740000000000004</v>
       </c>
-      <c r="T43" s="24">
+      <c r="T43" s="6">
         <v>0.44069999999999998</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="1">
         <v>0.42809999999999998</v>
       </c>
-      <c r="V43" s="24">
+      <c r="V43" s="7">
         <v>0.82789999999999997</v>
       </c>
-      <c r="W43" s="24">
+      <c r="W43" s="1">
         <v>0.43640000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="1">
         <v>0.26390000000000002</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="1">
         <v>0.61040000000000005</v>
       </c>
-      <c r="E44" s="76">
+      <c r="E44" s="1">
         <v>0.26860000000000001</v>
       </c>
-      <c r="F44" s="75">
+      <c r="F44" s="1">
         <v>0.1431</v>
       </c>
-      <c r="G44" s="88">
+      <c r="G44" s="1">
         <v>0.75919999999999999</v>
       </c>
-      <c r="H44" s="75">
+      <c r="H44" s="1">
         <v>0.11559999999999999</v>
       </c>
-      <c r="I44" s="76">
+      <c r="I44" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J44" s="77">
+      <c r="J44" s="1">
         <v>0.1988</v>
       </c>
-      <c r="K44" s="89">
+      <c r="K44" s="1">
         <v>-3.7199999999999997E-2</v>
       </c>
       <c r="N44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="24">
         <v>0.75870000000000004</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="79">
         <v>0.95199999999999996</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="85">
         <v>0.76249999999999996</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R44" s="79">
         <v>0.50939999999999996</v>
       </c>
-      <c r="S44" s="26">
+      <c r="S44" s="79">
         <v>0.97599999999999998</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="85">
         <v>0.5554</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="79">
         <v>0.43009999999999998</v>
       </c>
-      <c r="V44" s="26">
+      <c r="V44" s="78">
         <v>0.82479999999999998</v>
       </c>
-      <c r="W44" s="26">
+      <c r="W44" s="25">
         <v>0.42280000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="75">
+      <c r="C45" s="79">
         <v>0.60029999999999994</v>
       </c>
-      <c r="D45" s="88">
+      <c r="D45" s="78">
         <v>0.8841</v>
       </c>
-      <c r="E45" s="75">
+      <c r="E45" s="79">
         <v>0.59919999999999995</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="79">
         <v>0.45739999999999997</v>
       </c>
-      <c r="G45" s="90">
+      <c r="G45" s="79">
         <v>0.8679</v>
       </c>
-      <c r="H45" s="91">
+      <c r="H45" s="79">
         <v>0.49009999999999998</v>
       </c>
-      <c r="I45" s="76">
+      <c r="I45" s="79">
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="J45" s="92">
+      <c r="J45" s="79">
         <v>0.84930000000000005</v>
       </c>
-      <c r="K45" s="77">
+      <c r="K45" s="78">
         <v>8.6099999999999996E-2</v>
       </c>
       <c r="N45" s="13" t="s">
@@ -4950,198 +5965,198 @@
       <c r="P45" s="3">
         <v>0.94179999999999997</v>
       </c>
-      <c r="Q45" s="15">
+      <c r="Q45" s="14">
         <v>0.97560000000000002</v>
       </c>
       <c r="R45" s="13">
         <v>0.95330000000000004</v>
       </c>
-      <c r="S45" s="41">
+      <c r="S45" s="88">
         <v>0.96809999999999996</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T45" s="25">
         <v>0.93500000000000005</v>
       </c>
       <c r="U45" s="13">
         <v>0.94610000000000005</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V45" s="25">
         <v>0.83</v>
       </c>
-      <c r="W45" s="26">
+      <c r="W45" s="88">
         <v>0.94</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12" t="s">
+    <row r="46" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="4">
         <v>0.55449999999999999</v>
       </c>
-      <c r="D46" s="94">
+      <c r="D46" s="4">
         <v>0.70140000000000002</v>
       </c>
-      <c r="E46" s="93">
+      <c r="E46" s="4">
         <v>0.58240000000000003</v>
       </c>
-      <c r="F46" s="94">
+      <c r="F46" s="4">
         <v>0.3876</v>
       </c>
-      <c r="G46" s="95">
+      <c r="G46" s="4">
         <v>0.85450000000000004</v>
       </c>
-      <c r="H46" s="94">
+      <c r="H46" s="4">
         <v>0.442</v>
       </c>
-      <c r="I46" s="93">
+      <c r="I46" s="4">
         <v>0.14449999999999999</v>
       </c>
-      <c r="J46" s="96">
+      <c r="J46" s="4">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K46" s="97">
+      <c r="K46" s="4">
         <v>0.22520000000000001</v>
       </c>
-      <c r="N46" s="27" t="s">
+      <c r="N46" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O46" s="45">
+      <c r="O46" s="28">
         <v>0.99670000000000003</v>
       </c>
-      <c r="P46" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46" s="47">
+      <c r="P46" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="43">
         <v>0.99380000000000002</v>
       </c>
-      <c r="R46" s="27">
+      <c r="R46" s="86">
         <v>0.99399999999999999</v>
       </c>
-      <c r="S46" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="49">
+      <c r="S46" s="87">
+        <v>1</v>
+      </c>
+      <c r="T46" s="44">
         <v>0.99</v>
       </c>
-      <c r="U46" s="27">
+      <c r="U46" s="26">
         <v>0.996</v>
       </c>
-      <c r="V46" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="W46" s="49">
+      <c r="V46" s="49">
+        <v>1</v>
+      </c>
+      <c r="W46" s="44">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="79">
         <v>0.38490000000000002</v>
       </c>
       <c r="D47" s="79">
         <v>0.80810000000000004</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="79">
         <v>0.38590000000000002</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="79">
         <v>0.29380000000000001</v>
       </c>
-      <c r="G47" s="98">
+      <c r="G47" s="79">
         <v>0.95</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="79">
         <v>0.2316</v>
       </c>
-      <c r="I47" s="78">
+      <c r="I47" s="79">
         <v>3.1E-2</v>
       </c>
-      <c r="J47" s="99">
+      <c r="J47" s="79">
         <v>0.79600000000000004</v>
       </c>
-      <c r="K47" s="81">
+      <c r="K47" s="79">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="19">
+        <v>23</v>
+      </c>
+      <c r="O47" s="18">
         <v>0.93830000000000002</v>
       </c>
-      <c r="P47" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q47" s="19">
+      <c r="P47" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="45">
         <v>0.94210000000000005</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="46">
         <v>0.77900000000000003</v>
       </c>
-      <c r="S47" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="28">
+      <c r="S47" s="47">
+        <v>1</v>
+      </c>
+      <c r="T47" s="48">
         <v>0.87360000000000004</v>
       </c>
-      <c r="U47" s="4">
+      <c r="U47" s="89">
         <v>0.80679999999999996</v>
       </c>
-      <c r="V47" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="W47" s="28">
+      <c r="V47" s="50">
+        <v>1</v>
+      </c>
+      <c r="W47" s="27">
         <v>0.82609999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="12" t="s">
+    <row r="48" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="45">
         <v>0.37159999999999999</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="45">
         <v>0.55959999999999999</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="45">
         <v>0.50719999999999998</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="45">
         <v>0.52310000000000001</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="45">
         <v>0.69650000000000001</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="45">
         <v>0.54249999999999998</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="45">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="45">
         <v>0.1968</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="45">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="82">
         <v>0.3387</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>0.38890000000000002</v>
       </c>
       <c r="E49" s="13">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <v>0.87549999999999994</v>
       </c>
       <c r="G49" s="13">
@@ -5153,13 +6168,13 @@
       <c r="I49" s="13">
         <v>0.3463</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="14">
         <v>0.39200000000000002</v>
       </c>
       <c r="K49" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O49" s="22"/>
+      <c r="O49" s="21"/>
       <c r="P49" s="5" t="s">
         <v>4</v>
       </c>
@@ -5170,42 +6185,42 @@
         <v>6</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="80">
         <v>0.55559999999999998</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="45">
         <v>0.2366</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="45">
         <v>0.56850000000000001</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="46">
         <v>0.51470000000000005</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="45">
         <v>0.69920000000000004</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="46">
         <v>0.52839999999999998</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="81">
         <v>0.2455</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="81">
         <v>0.29559999999999997</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="45">
         <v>0.21590000000000001</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P50" s="8">
         <f>AVERAGE(O43:O47,R43:R47,U43:U47)</f>
@@ -5221,42 +6236,46 @@
       </c>
       <c r="S50" s="9">
         <f>AVERAGE(O43:W47)</f>
-        <v>0.81224102564102563</v>
+        <v>0.83727555555555566</v>
+      </c>
+      <c r="X50">
+        <f>MAX(O43:W47)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="4">
         <v>0.70279999999999998</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="83">
         <v>0.85760000000000003</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="83">
         <v>0.70750000000000002</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="18">
         <v>0.58679999999999999</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="83">
         <v>0.93889999999999996</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="84">
         <v>0.58650000000000002</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="20">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="20">
         <v>0.79710000000000003</v>
       </c>
       <c r="K51" s="4">
         <v>0.2339</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P51" s="10">
         <f>MEDIAN(O43:O47,R43:R47,U43:U47)</f>
@@ -5270,13 +6289,23 @@
         <f>MEDIAN(Q43:Q47,T43:T47,W43:W47)</f>
         <v>0.87360000000000004</v>
       </c>
-      <c r="S51" s="36">
+      <c r="S51" s="35">
         <f>MEDIAN(O43:W47)</f>
-        <v>0.86890000000000001</v>
+        <v>0.93830000000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C54" s="22"/>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>MAX(C43:K51)</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C52">
+        <f>MIN(C43:K51)</f>
+        <v>-3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C54" s="21"/>
       <c r="D54" s="5" t="s">
         <v>4</v>
       </c>
@@ -5287,15 +6316,15 @@
         <v>6</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="8">
         <f>AVERAGE(C43:C51,F43:F51,I43:I51)</f>
@@ -5314,9 +6343,9 @@
         <v>0.43382469135802459</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="10">
         <f>MEDIAN(C43:C51,F43:F51,I43:I51)</f>
@@ -5330,7 +6359,7 @@
         <f>MEDIAN(E43:E51,H43:H51,K43:K51)</f>
         <v>0.26860000000000001</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="35">
         <f>MEDIAN(C43:K51)</f>
         <v>0.39200000000000002</v>
       </c>
@@ -5338,24 +6367,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="97">
+        <f>AVERAGE(C5:E13,C24:E32,C43:E51)</f>
+        <v>0.52079629629629642</v>
+      </c>
+      <c r="D81" s="97">
+        <f>AVERAGE(F5:H13,F24:H32,F43:H51)</f>
+        <v>0.58931604938271576</v>
+      </c>
+      <c r="E81" s="40">
+        <f>AVERAGE(I5:K13,I24:K32,I43:K51)</f>
+        <v>0.22445925925925928</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="18">
+        <f>AVERAGE(O5:Q9,O24:Q28,O43:Q47)</f>
+        <v>0.91113777777777782</v>
+      </c>
+      <c r="D82" s="18">
+        <f>AVERAGE(R5:T9,R24:T28,R43:T47)</f>
+        <v>0.84200444444444444</v>
+      </c>
+      <c r="E82" s="27">
+        <f>AVERAGE(U24,U24:W28,U43:W47,U5:W9)</f>
+        <v>0.77991521739130432</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="R41:T41"/>
     <mergeCell ref="U41:W41"/>
@@ -5369,6 +6438,17 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/random_walk/gathered.xlsx
+++ b/statistics/random_walk/gathered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78A77C-C27A-4AEA-BBD6-94B156A539A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00940E1A-8623-48BC-8CE0-F5A1B1E8305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -743,10 +743,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,13 +763,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4379,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:E82"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="111" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,45 +4397,45 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="N3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4463,7 @@
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5052,45 +5051,45 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91" t="s">
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91" t="s">
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="N22" s="95" t="s">
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="N22" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="92" t="s">
+      <c r="O22" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="92" t="s">
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="93"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="92" t="s">
+      <c r="S22" s="95"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="93"/>
-      <c r="W22" s="94"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="96"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5117,7 @@
       <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="96"/>
+      <c r="N23" s="92"/>
       <c r="O23" s="5" t="s">
         <v>4</v>
       </c>
@@ -5706,45 +5705,45 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91" t="s">
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91" t="s">
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="N41" s="90" t="s">
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="N41" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="91" t="s">
+      <c r="O41" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91" t="s">
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91" t="s">
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
+      <c r="V41" s="90"/>
+      <c r="W41" s="90"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -5772,7 +5771,7 @@
       <c r="K42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="90"/>
+      <c r="N42" s="93"/>
       <c r="O42" s="1" t="s">
         <v>4</v>
       </c>
@@ -6393,11 +6392,11 @@
       <c r="B81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="97">
+      <c r="C81">
         <f>AVERAGE(C5:E13,C24:E32,C43:E51)</f>
         <v>0.52079629629629642</v>
       </c>
-      <c r="D81" s="97">
+      <c r="D81">
         <f>AVERAGE(F5:H13,F24:H32,F43:H51)</f>
         <v>0.58931604938271576</v>
       </c>
@@ -6425,6 +6424,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="R41:T41"/>
     <mergeCell ref="U41:W41"/>
@@ -6438,17 +6448,6 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
